--- a/RAGGemini/mocksData.xlsx
+++ b/RAGGemini/mocksData.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Whois the current  chair of IEEE  FISAT SB  COMPUTER SOCIETY </t>
   </si>
   <si>
-    <t>Anjal P Diya</t>
+    <t>Anjal P Dijo</t>
   </si>
   <si>
     <t>Whois the current  secretatry of IEEE   FISAT SB COMPUTER SOCIETY</t>
